--- a/Outputs/Monte Carlo results.xlsx
+++ b/Outputs/Monte Carlo results.xlsx
@@ -394,16 +394,16 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1.86863010643046E10</v>
+        <v>1.80201473473966E11</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08271031246134E10</v>
+        <v>5.80818492520249E10</v>
       </c>
       <c r="D2" t="n">
-        <v>2.18445199390406E9</v>
+        <v>2.30112608945401E10</v>
       </c>
       <c r="E2" t="n">
-        <v>1.18844360560047E9</v>
+        <v>1.08763823353271E10</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>9.98759556054812E10</v>
+        <v>2.73871355886451E11</v>
       </c>
       <c r="C3" t="n">
-        <v>1.98243765793749E8</v>
+        <v>5.53657367549912E10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.01296447107559E10</v>
+        <v>2.38351398022479E10</v>
       </c>
       <c r="E3" t="n">
-        <v>6.34083668983721E8</v>
+        <v>5.28124587006045E9</v>
       </c>
     </row>
     <row r="4">
@@ -428,16 +428,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>3.11801177074297E11</v>
+        <v>4.87448819016114E10</v>
       </c>
       <c r="C4" t="n">
-        <v>1.14546933459397E11</v>
+        <v>2.11145237285078E10</v>
       </c>
       <c r="D4" t="n">
-        <v>2.55339341664573E10</v>
+        <v>4.25937010056286E9</v>
       </c>
       <c r="E4" t="n">
-        <v>9.0253318962965E9</v>
+        <v>4.4556897264668E9</v>
       </c>
     </row>
     <row r="5">
@@ -445,16 +445,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>2.56137106700939E11</v>
+        <v>2.27377716153191E11</v>
       </c>
       <c r="C5" t="n">
-        <v>4.60281058020278E10</v>
+        <v>2.58254324711494E10</v>
       </c>
       <c r="D5" t="n">
-        <v>2.33157861269807E10</v>
+        <v>1.87283261901143E10</v>
       </c>
       <c r="E5" t="n">
-        <v>6.07189141854711E9</v>
+        <v>1.25999739691783E9</v>
       </c>
     </row>
     <row r="6">
@@ -462,16 +462,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>4.60252481036293E11</v>
+        <v>3.23012643200899E11</v>
       </c>
       <c r="C6" t="n">
-        <v>3.04830532882436E11</v>
+        <v>1.25229067054466E11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.98519970732408E10</v>
+        <v>2.70907988257312E10</v>
       </c>
       <c r="E6" t="n">
-        <v>2.30405704145225E10</v>
+        <v>1.07388714494227E10</v>
       </c>
     </row>
     <row r="7">
@@ -479,16 +479,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>6.11749607490642E10</v>
+        <v>9.30752645492092E10</v>
       </c>
       <c r="C7" t="n">
-        <v>1.92548440462239E10</v>
+        <v>3.66117811136916E10</v>
       </c>
       <c r="D7" t="n">
-        <v>6.74271034754374E9</v>
+        <v>8.20024618050291E9</v>
       </c>
       <c r="E7" t="n">
-        <v>2.4968156974796E9</v>
+        <v>3.30107282022713E9</v>
       </c>
     </row>
     <row r="8">
@@ -496,16 +496,16 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>1.07420373738072E11</v>
+        <v>6.6464705872382E11</v>
       </c>
       <c r="C8" t="n">
-        <v>6.89756838644712E10</v>
+        <v>2.33932587684096E11</v>
       </c>
       <c r="D8" t="n">
-        <v>9.60046695932569E9</v>
+        <v>5.77525630277374E10</v>
       </c>
       <c r="E8" t="n">
-        <v>6.05439645198479E9</v>
+        <v>1.82621331175738E10</v>
       </c>
     </row>
     <row r="9">
@@ -513,16 +513,16 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>6.68095480412246E10</v>
+        <v>1.76307383774161E11</v>
       </c>
       <c r="C9" t="n">
-        <v>1.78538201456218E10</v>
+        <v>6.67399823985909E10</v>
       </c>
       <c r="D9" t="n">
-        <v>6.30042682687371E9</v>
+        <v>2.20067212772374E10</v>
       </c>
       <c r="E9" t="n">
-        <v>1.79706545572706E9</v>
+        <v>8.41616196158827E9</v>
       </c>
     </row>
     <row r="10">
@@ -530,16 +530,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>4.34378289812211E11</v>
+        <v>1.41925960399273E11</v>
       </c>
       <c r="C10" t="n">
-        <v>2.68096039710914E11</v>
+        <v>-1.71604623281946E10</v>
       </c>
       <c r="D10" t="n">
-        <v>3.55574714723906E10</v>
+        <v>1.42342946245867E10</v>
       </c>
       <c r="E10" t="n">
-        <v>2.05541880968742E10</v>
+        <v>1.19029190051511E9</v>
       </c>
     </row>
     <row r="11">
@@ -547,16 +547,16 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>9.47741882494156E10</v>
+        <v>4.86088581815418E11</v>
       </c>
       <c r="C11" t="n">
-        <v>2.20246681342411E10</v>
+        <v>2.53542322947137E11</v>
       </c>
       <c r="D11" t="n">
-        <v>8.92202961667779E9</v>
+        <v>3.95305765692493E10</v>
       </c>
       <c r="E11" t="n">
-        <v>2.28863022837362E9</v>
+        <v>2.068447020062E10</v>
       </c>
     </row>
     <row r="12">
@@ -564,16 +564,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>1.43636324453649E11</v>
+        <v>1.89467151296033E11</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.79358339755641E10</v>
+        <v>1.29908234604553E11</v>
       </c>
       <c r="D12" t="n">
-        <v>1.23433476443838E10</v>
+        <v>1.80903563002344E10</v>
       </c>
       <c r="E12" t="n">
-        <v>-9.34237848492213E8</v>
+        <v>1.00862030358495E10</v>
       </c>
     </row>
     <row r="13">
@@ -581,16 +581,16 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>1.26750664239552E11</v>
+        <v>1.61229522074078E11</v>
       </c>
       <c r="C13" t="n">
-        <v>3.38861589010854E10</v>
+        <v>-9.20375142565555E9</v>
       </c>
       <c r="D13" t="n">
-        <v>1.29313910916174E10</v>
+        <v>1.3786382620762E10</v>
       </c>
       <c r="E13" t="n">
-        <v>4.1006283270238E9</v>
+        <v>-4.59303298115773E8</v>
       </c>
     </row>
     <row r="14">
@@ -598,16 +598,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>4.86953053457825E11</v>
+        <v>1.63285059551867E11</v>
       </c>
       <c r="C14" t="n">
-        <v>2.99048476581679E11</v>
+        <v>-7.47425567607162E9</v>
       </c>
       <c r="D14" t="n">
-        <v>3.98542015284193E10</v>
+        <v>1.81442962621825E10</v>
       </c>
       <c r="E14" t="n">
-        <v>2.39754399273672E10</v>
+        <v>2.09305544148259E9</v>
       </c>
     </row>
     <row r="15">
@@ -615,16 +615,16 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>2.38942122270751E11</v>
+        <v>9.45331783722877E10</v>
       </c>
       <c r="C15" t="n">
-        <v>1.16152313975837E11</v>
+        <v>3.95091376239147E9</v>
       </c>
       <c r="D15" t="n">
-        <v>2.06616798779762E10</v>
+        <v>8.69337024173806E9</v>
       </c>
       <c r="E15" t="n">
-        <v>9.63551354133755E9</v>
+        <v>3.36537607459785E8</v>
       </c>
     </row>
     <row r="16">
@@ -632,16 +632,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>4.88532507259005E11</v>
+        <v>1.09450834702431E11</v>
       </c>
       <c r="C16" t="n">
-        <v>2.01136148683756E11</v>
+        <v>3.93540796257962E10</v>
       </c>
       <c r="D16" t="n">
-        <v>3.91911550490515E10</v>
+        <v>1.18169081475598E10</v>
       </c>
       <c r="E16" t="n">
-        <v>1.5193824303882E10</v>
+        <v>1.53249431417854E9</v>
       </c>
     </row>
     <row r="17">
@@ -649,16 +649,16 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>2.70661295796589E11</v>
+        <v>3.02894370206452E11</v>
       </c>
       <c r="C17" t="n">
-        <v>1.10574632715596E11</v>
+        <v>1.10578898641041E11</v>
       </c>
       <c r="D17" t="n">
-        <v>2.67116334266269E10</v>
+        <v>2.50299046269185E10</v>
       </c>
       <c r="E17" t="n">
-        <v>1.14276155335307E10</v>
+        <v>9.78570968542282E9</v>
       </c>
     </row>
     <row r="18">
@@ -666,16 +666,16 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>2.47559157589266E11</v>
+        <v>8.98417772564336E10</v>
       </c>
       <c r="C18" t="n">
-        <v>7.14450533731086E10</v>
+        <v>4.14249887771416E10</v>
       </c>
       <c r="D18" t="n">
-        <v>2.01685090477068E10</v>
+        <v>7.47098565060864E9</v>
       </c>
       <c r="E18" t="n">
-        <v>5.68543173837943E9</v>
+        <v>3.25905361904949E9</v>
       </c>
     </row>
     <row r="19">
@@ -683,16 +683,16 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>9.72669289246926E10</v>
+        <v>4.9847680133026E11</v>
       </c>
       <c r="C19" t="n">
-        <v>2.61487083918374E10</v>
+        <v>9.21419798930669E10</v>
       </c>
       <c r="D19" t="n">
-        <v>1.28206953004629E10</v>
+        <v>4.21070606139428E10</v>
       </c>
       <c r="E19" t="n">
-        <v>4.48881675038157E9</v>
+        <v>9.30273747764154E9</v>
       </c>
     </row>
     <row r="20">
@@ -700,16 +700,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>9.83027921460425E10</v>
+        <v>1.21029425359867E11</v>
       </c>
       <c r="C20" t="n">
-        <v>3.44314247554535E10</v>
+        <v>6.16876380367793E9</v>
       </c>
       <c r="D20" t="n">
-        <v>8.42186002520898E9</v>
+        <v>1.02861405296872E10</v>
       </c>
       <c r="E20" t="n">
-        <v>3.09989463878334E9</v>
+        <v>-4.51391031252452E8</v>
       </c>
     </row>
     <row r="21">
@@ -717,16 +717,16 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>6.41654253975317E10</v>
+        <v>1.82856259976189E11</v>
       </c>
       <c r="C21" t="n">
-        <v>3.60337579139242E10</v>
+        <v>8.09111148833881E10</v>
       </c>
       <c r="D21" t="n">
-        <v>9.07004531383534E9</v>
+        <v>1.8054946961019E10</v>
       </c>
       <c r="E21" t="n">
-        <v>4.79789736245438E9</v>
+        <v>7.65249190177697E9</v>
       </c>
     </row>
     <row r="22">
@@ -734,16 +734,16 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>1.26118996249921E11</v>
+        <v>1.03127883597876E12</v>
       </c>
       <c r="C22" t="n">
-        <v>1.51026272323183E10</v>
+        <v>6.44600752498008E11</v>
       </c>
       <c r="D22" t="n">
-        <v>1.76264064320198E10</v>
+        <v>8.18925588994798E10</v>
       </c>
       <c r="E22" t="n">
-        <v>5.51305399874014E9</v>
+        <v>4.80478620364007E10</v>
       </c>
     </row>
     <row r="23">
@@ -751,16 +751,16 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>4.05045738983075E11</v>
+        <v>4.31325506867613E10</v>
       </c>
       <c r="C23" t="n">
-        <v>1.38085219976377E11</v>
+        <v>2.77348741378246E10</v>
       </c>
       <c r="D23" t="n">
-        <v>3.49191083564718E10</v>
+        <v>4.1545207518448E9</v>
       </c>
       <c r="E23" t="n">
-        <v>8.01564226935776E9</v>
+        <v>2.36678386622651E9</v>
       </c>
     </row>
     <row r="24">
@@ -768,16 +768,16 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>2.64010928646799E11</v>
+        <v>3.19542679880377E11</v>
       </c>
       <c r="C24" t="n">
-        <v>1.02451503337278E11</v>
+        <v>1.43501626587802E11</v>
       </c>
       <c r="D24" t="n">
-        <v>2.5913847994672E10</v>
+        <v>3.81624161472538E10</v>
       </c>
       <c r="E24" t="n">
-        <v>1.01827857418517E10</v>
+        <v>1.73763243381402E10</v>
       </c>
     </row>
     <row r="25">
@@ -785,16 +785,16 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>8.15106758473061E10</v>
+        <v>3.67884619375702E11</v>
       </c>
       <c r="C25" t="n">
-        <v>1.27304531848249E10</v>
+        <v>1.59516900021353E11</v>
       </c>
       <c r="D25" t="n">
-        <v>8.65048056845784E9</v>
+        <v>3.44734113917064E10</v>
       </c>
       <c r="E25" t="n">
-        <v>1.96481745459932E9</v>
+        <v>1.6236958034361E10</v>
       </c>
     </row>
     <row r="26">
@@ -802,16 +802,16 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>7.24404912138576E10</v>
+        <v>1.16785982314473E11</v>
       </c>
       <c r="C26" t="n">
-        <v>3.49625009208636E10</v>
+        <v>3.9846079990677E10</v>
       </c>
       <c r="D26" t="n">
-        <v>6.34388662405013E9</v>
+        <v>1.14070638575932E10</v>
       </c>
       <c r="E26" t="n">
-        <v>3.03925883717752E9</v>
+        <v>5.60867666723164E9</v>
       </c>
     </row>
     <row r="27">
@@ -819,16 +819,16 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>6.69313108590406E10</v>
+        <v>4.09403578127213E11</v>
       </c>
       <c r="C27" t="n">
-        <v>1.37606640944933E10</v>
+        <v>2.79960607575765E11</v>
       </c>
       <c r="D27" t="n">
-        <v>6.99919188350933E9</v>
+        <v>3.29728969675771E10</v>
       </c>
       <c r="E27" t="n">
-        <v>2.02888246477672E9</v>
+        <v>2.1106813411261E10</v>
       </c>
     </row>
     <row r="28">
@@ -836,16 +836,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>1.09214073642947E11</v>
+        <v>3.23146080971265E11</v>
       </c>
       <c r="C28" t="n">
-        <v>2.34518353375918E10</v>
+        <v>1.42551495642405E11</v>
       </c>
       <c r="D28" t="n">
-        <v>1.34501852514965E10</v>
+        <v>2.41784469054309E10</v>
       </c>
       <c r="E28" t="n">
-        <v>4.24181915169244E9</v>
+        <v>1.36173581201363E10</v>
       </c>
     </row>
     <row r="29">
@@ -853,16 +853,16 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>2.57390634081183E11</v>
+        <v>3.13443492267125E10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.25286468752349E11</v>
+        <v>1.40371814286439E10</v>
       </c>
       <c r="D29" t="n">
-        <v>2.05770756935441E10</v>
+        <v>2.80721903024372E9</v>
       </c>
       <c r="E29" t="n">
-        <v>9.93370512502608E9</v>
+        <v>1.55005324219449E9</v>
       </c>
     </row>
     <row r="30">
@@ -870,16 +870,16 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>1.84888115322638E11</v>
+        <v>1.88973855640575E10</v>
       </c>
       <c r="C30" t="n">
-        <v>7.09805974880062E10</v>
+        <v>-1.42523059453011E9</v>
       </c>
       <c r="D30" t="n">
-        <v>1.76412611523223E10</v>
+        <v>2.81373851536462E9</v>
       </c>
       <c r="E30" t="n">
-        <v>7.63186816712024E9</v>
+        <v>1.87486633783851E8</v>
       </c>
     </row>
     <row r="31">
@@ -887,16 +887,16 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>9.065898495457E10</v>
+        <v>2.68238584941603E11</v>
       </c>
       <c r="C31" t="n">
-        <v>3.36451972612439E10</v>
+        <v>-2.46514731545836E10</v>
       </c>
       <c r="D31" t="n">
-        <v>1.37390985736827E10</v>
+        <v>2.36132923626069E10</v>
       </c>
       <c r="E31" t="n">
-        <v>5.97269187218785E9</v>
+        <v>-1.16595041599334E9</v>
       </c>
     </row>
     <row r="32">
@@ -904,16 +904,16 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>2.19104632554081E11</v>
+        <v>7.22669445170278E10</v>
       </c>
       <c r="C32" t="n">
-        <v>1.44878955386607E11</v>
+        <v>3.84821506124334E10</v>
       </c>
       <c r="D32" t="n">
-        <v>1.82747954052913E10</v>
+        <v>6.24877504081911E9</v>
       </c>
       <c r="E32" t="n">
-        <v>1.16393724618298E10</v>
+        <v>2.75291720077415E9</v>
       </c>
     </row>
     <row r="33">
@@ -921,16 +921,16 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>2.9153919747728E11</v>
+        <v>2.27541762085446E11</v>
       </c>
       <c r="C33" t="n">
-        <v>9.80823985297794E10</v>
+        <v>8.84285699656561E10</v>
       </c>
       <c r="D33" t="n">
-        <v>2.62195513778516E10</v>
+        <v>2.11941115456058E10</v>
       </c>
       <c r="E33" t="n">
-        <v>7.4647066128451E9</v>
+        <v>1.04357706140463E10</v>
       </c>
     </row>
     <row r="34">
@@ -938,16 +938,16 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>3.72011721779011E11</v>
+        <v>2.64307414985756E10</v>
       </c>
       <c r="C34" t="n">
-        <v>1.50855162718032E11</v>
+        <v>1.53597837574108E10</v>
       </c>
       <c r="D34" t="n">
-        <v>2.94925065881979E10</v>
+        <v>3.70286297424635E9</v>
       </c>
       <c r="E34" t="n">
-        <v>1.11303796214915E10</v>
+        <v>1.25369165482234E9</v>
       </c>
     </row>
     <row r="35">
@@ -955,16 +955,16 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>2.43049395850364E11</v>
+        <v>3.32829084041408E10</v>
       </c>
       <c r="C35" t="n">
-        <v>8.81019980239188E10</v>
+        <v>1.2694934622419E10</v>
       </c>
       <c r="D35" t="n">
-        <v>2.27997294289373E10</v>
+        <v>3.6755322171195E9</v>
       </c>
       <c r="E35" t="n">
-        <v>8.56799747692082E9</v>
+        <v>1.59075093239644E9</v>
       </c>
     </row>
     <row r="36">
@@ -972,16 +972,16 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>1.99512456719453E11</v>
+        <v>5.15390524535977E11</v>
       </c>
       <c r="C36" t="n">
-        <v>1.26442461725172E11</v>
+        <v>2.98813638534766E11</v>
       </c>
       <c r="D36" t="n">
-        <v>2.13961038680214E10</v>
+        <v>4.67558840240801E10</v>
       </c>
       <c r="E36" t="n">
-        <v>1.24776817067543E10</v>
+        <v>2.62050528870133E10</v>
       </c>
     </row>
     <row r="37">
@@ -989,16 +989,16 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>9.30027823118219E10</v>
+        <v>3.37343247195404E11</v>
       </c>
       <c r="C37" t="n">
-        <v>1.66519584384121E10</v>
+        <v>1.97888536180716E11</v>
       </c>
       <c r="D37" t="n">
-        <v>9.38337164394235E9</v>
+        <v>2.73190861360334E10</v>
       </c>
       <c r="E37" t="n">
-        <v>2.72658090073308E9</v>
+        <v>1.53443593267431E10</v>
       </c>
     </row>
     <row r="38">
@@ -1006,16 +1006,16 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>3.95905795693186E11</v>
+        <v>4.60910481037143E11</v>
       </c>
       <c r="C38" t="n">
-        <v>2.51933405830394E11</v>
+        <v>2.52231532328143E11</v>
       </c>
       <c r="D38" t="n">
-        <v>3.47914707840678E10</v>
+        <v>3.75477554766026E10</v>
       </c>
       <c r="E38" t="n">
-        <v>2.12358451760087E10</v>
+        <v>2.11641327061788E10</v>
       </c>
     </row>
     <row r="39">
@@ -1023,16 +1023,16 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>2.8632572644986E11</v>
+        <v>3.31904764089678E11</v>
       </c>
       <c r="C39" t="n">
-        <v>2.25426033602943E10</v>
+        <v>1.6881039661959E11</v>
       </c>
       <c r="D39" t="n">
-        <v>2.34717238837355E10</v>
+        <v>2.59064317867681E10</v>
       </c>
       <c r="E39" t="n">
-        <v>2.64374469816369E9</v>
+        <v>1.38642125639389E10</v>
       </c>
     </row>
     <row r="40">
@@ -1040,16 +1040,16 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>8.75706725218838E10</v>
+        <v>2.1928012936584E11</v>
       </c>
       <c r="C40" t="n">
-        <v>2.74539846777036E10</v>
+        <v>5.15432150921559E10</v>
       </c>
       <c r="D40" t="n">
-        <v>7.65676100655256E9</v>
+        <v>1.4515358593316E10</v>
       </c>
       <c r="E40" t="n">
-        <v>2.40492012709384E9</v>
+        <v>5.90347169492204E9</v>
       </c>
     </row>
     <row r="41">
@@ -1057,16 +1057,16 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>5.41898642521467E10</v>
+        <v>7.80010094315519E10</v>
       </c>
       <c r="C41" t="n">
-        <v>2.08243081216097E10</v>
+        <v>5.42172197687736E10</v>
       </c>
       <c r="D41" t="n">
-        <v>4.49004715227029E9</v>
+        <v>8.76455964890797E9</v>
       </c>
       <c r="E41" t="n">
-        <v>1.60476510356453E9</v>
+        <v>4.01205791726275E9</v>
       </c>
     </row>
     <row r="42">
@@ -1074,16 +1074,16 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>2.29435323199331E11</v>
+        <v>9.23074482274769E10</v>
       </c>
       <c r="C42" t="n">
-        <v>4.49243489230095E10</v>
+        <v>2.16361652327822E10</v>
       </c>
       <c r="D42" t="n">
-        <v>1.94077109759095E10</v>
+        <v>8.92503098487191E9</v>
       </c>
       <c r="E42" t="n">
-        <v>4.14765777529003E9</v>
+        <v>2.5435908869786E9</v>
       </c>
     </row>
     <row r="43">
@@ -1091,16 +1091,16 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>1.45819981120037E11</v>
+        <v>3.35576700380062E11</v>
       </c>
       <c r="C43" t="n">
-        <v>8.89430929125678E10</v>
+        <v>2.01320824507958E11</v>
       </c>
       <c r="D43" t="n">
-        <v>1.31496332429356E10</v>
+        <v>2.68029209757793E10</v>
       </c>
       <c r="E43" t="n">
-        <v>7.49743190329193E9</v>
+        <v>1.60040354062821E10</v>
       </c>
     </row>
     <row r="44">
@@ -1108,16 +1108,16 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>3.38368568332289E11</v>
+        <v>3.23078002378794E11</v>
       </c>
       <c r="C44" t="n">
-        <v>1.2701585025307E11</v>
+        <v>9.9010860846184E10</v>
       </c>
       <c r="D44" t="n">
-        <v>3.23723974976819E10</v>
+        <v>2.7551987901093E10</v>
       </c>
       <c r="E44" t="n">
-        <v>1.02735588625356E10</v>
+        <v>9.77821330002901E9</v>
       </c>
     </row>
     <row r="45">
@@ -1125,16 +1125,16 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>2.58853304075534E11</v>
+        <v>4.32815642822392E11</v>
       </c>
       <c r="C45" t="n">
-        <v>9.87987754417527E10</v>
+        <v>2.14291030861401E11</v>
       </c>
       <c r="D45" t="n">
-        <v>2.18713736165861E10</v>
+        <v>3.4766951732663E10</v>
       </c>
       <c r="E45" t="n">
-        <v>8.26425727330089E9</v>
+        <v>1.68755411559948E10</v>
       </c>
     </row>
     <row r="46">
@@ -1142,16 +1142,16 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>4.10647656470963E11</v>
+        <v>2.61621848480291E11</v>
       </c>
       <c r="C46" t="n">
-        <v>2.27901793469863E11</v>
+        <v>7.17082703215604E10</v>
       </c>
       <c r="D46" t="n">
-        <v>4.27741273184058E10</v>
+        <v>2.28209647825785E10</v>
       </c>
       <c r="E46" t="n">
-        <v>1.99309516107895E10</v>
+        <v>6.97214332639387E9</v>
       </c>
     </row>
     <row r="47">
@@ -1159,16 +1159,16 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>4.96385941315168E11</v>
+        <v>1.06869821876291E11</v>
       </c>
       <c r="C47" t="n">
-        <v>1.14906272888541E11</v>
+        <v>3.49986453427262E10</v>
       </c>
       <c r="D47" t="n">
-        <v>3.88520177839319E10</v>
+        <v>8.57276772661775E9</v>
       </c>
       <c r="E47" t="n">
-        <v>7.48737260383426E9</v>
+        <v>2.93616238756295E9</v>
       </c>
     </row>
     <row r="48">
@@ -1176,16 +1176,16 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>4.30911554452758E11</v>
+        <v>1.95606652610634E11</v>
       </c>
       <c r="C48" t="n">
-        <v>3.01060957278653E11</v>
+        <v>8.32392118918711E10</v>
       </c>
       <c r="D48" t="n">
-        <v>3.5220992274448E10</v>
+        <v>1.91956643885296E10</v>
       </c>
       <c r="E48" t="n">
-        <v>2.40876323602077E10</v>
+        <v>8.86074997698299E9</v>
       </c>
     </row>
     <row r="49">
@@ -1193,16 +1193,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>2.13840406726039E11</v>
+        <v>2.23964946288327E11</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5632640524705E10</v>
+        <v>9.88833809756915E10</v>
       </c>
       <c r="D49" t="n">
-        <v>1.83012849700448E10</v>
+        <v>1.96252555621944E10</v>
       </c>
       <c r="E49" t="n">
-        <v>1.92333979017502E9</v>
+        <v>8.62323036572745E9</v>
       </c>
     </row>
     <row r="50">
@@ -1210,16 +1210,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>3.7341389434728E10</v>
+        <v>9.32691784287672E10</v>
       </c>
       <c r="C50" t="n">
-        <v>2.21320811602329E10</v>
+        <v>2.70513613434503E10</v>
       </c>
       <c r="D50" t="n">
-        <v>4.18352123677779E9</v>
+        <v>1.02634186415541E10</v>
       </c>
       <c r="E50" t="n">
-        <v>2.29547785083599E9</v>
+        <v>3.20466687684085E9</v>
       </c>
     </row>
     <row r="51">
@@ -1227,16 +1227,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>1.53389468977407E11</v>
+        <v>1.53280190722406E11</v>
       </c>
       <c r="C51" t="n">
-        <v>5.49883629473636E10</v>
+        <v>9.04154713872061E9</v>
       </c>
       <c r="D51" t="n">
-        <v>1.26731567523419E10</v>
+        <v>1.67702463925264E10</v>
       </c>
       <c r="E51" t="n">
-        <v>4.44937347342443E9</v>
+        <v>3.50371358064003E9</v>
       </c>
     </row>
     <row r="52">
@@ -1244,16 +1244,16 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>2.77093711273668E10</v>
+        <v>1.72468803637469E11</v>
       </c>
       <c r="C52" t="n">
-        <v>5.44751187162257E9</v>
+        <v>5.66881286461023E10</v>
       </c>
       <c r="D52" t="n">
-        <v>3.53515556742493E9</v>
+        <v>1.45530792130449E10</v>
       </c>
       <c r="E52" t="n">
-        <v>1.17143520183024E9</v>
+        <v>4.86072522546824E9</v>
       </c>
     </row>
     <row r="53">
@@ -1261,16 +1261,16 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>2.65887211144686E11</v>
+        <v>9.78225083265212E10</v>
       </c>
       <c r="C53" t="n">
-        <v>1.36977805880183E11</v>
+        <v>3.46959920525153E10</v>
       </c>
       <c r="D53" t="n">
-        <v>2.88617880172707E10</v>
+        <v>8.04548756988796E9</v>
       </c>
       <c r="E53" t="n">
-        <v>1.46619489901503E10</v>
+        <v>2.80918666366983E9</v>
       </c>
     </row>
     <row r="54">
@@ -1278,16 +1278,16 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>1.17879199362636E11</v>
+        <v>1.00834915232391E11</v>
       </c>
       <c r="C54" t="n">
-        <v>4.36181532730508E10</v>
+        <v>7.76635440062649E9</v>
       </c>
       <c r="D54" t="n">
-        <v>1.08904823427921E10</v>
+        <v>8.4131212695787E9</v>
       </c>
       <c r="E54" t="n">
-        <v>4.35982153578309E9</v>
+        <v>3.06078518336747E7</v>
       </c>
     </row>
     <row r="55">
@@ -1295,16 +1295,16 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>2.80214924286908E11</v>
+        <v>3.45238325806127E11</v>
       </c>
       <c r="C55" t="n">
-        <v>1.35740543988786E11</v>
+        <v>1.22406610246355E11</v>
       </c>
       <c r="D55" t="n">
-        <v>2.2755481115016E10</v>
+        <v>3.25670789124089E10</v>
       </c>
       <c r="E55" t="n">
-        <v>1.06572964289457E10</v>
+        <v>1.0789860306645E10</v>
       </c>
     </row>
     <row r="56">
@@ -1312,16 +1312,16 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>3.36732601789538E11</v>
+        <v>1.04762519173501E11</v>
       </c>
       <c r="C56" t="n">
-        <v>1.12225625476268E11</v>
+        <v>5.50654943964568E10</v>
       </c>
       <c r="D56" t="n">
-        <v>2.97929792812188E10</v>
+        <v>8.67747047451381E9</v>
       </c>
       <c r="E56" t="n">
-        <v>9.33351383489294E9</v>
+        <v>5.09047979064369E9</v>
       </c>
     </row>
     <row r="57">
@@ -1329,16 +1329,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>4.79153299881549E10</v>
+        <v>5.34942338975472E10</v>
       </c>
       <c r="C57" t="n">
-        <v>-1.61621635981553E10</v>
+        <v>3.19265336746122E10</v>
       </c>
       <c r="D57" t="n">
-        <v>5.38038433244019E9</v>
+        <v>5.66725803325454E9</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.24217618547637E8</v>
+        <v>3.722984916567E9</v>
       </c>
     </row>
     <row r="58">
@@ -1346,16 +1346,16 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>3.6340286608423E11</v>
+        <v>1.41977555148154E11</v>
       </c>
       <c r="C58" t="n">
-        <v>1.93320332154343E11</v>
+        <v>7.22543476077299E10</v>
       </c>
       <c r="D58" t="n">
-        <v>3.86270769343219E10</v>
+        <v>1.16388680389371E10</v>
       </c>
       <c r="E58" t="n">
-        <v>2.02228098254109E10</v>
+        <v>5.78284957854111E9</v>
       </c>
     </row>
     <row r="59">
@@ -1363,16 +1363,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>1.64663814713642E11</v>
+        <v>2.23526140467436E11</v>
       </c>
       <c r="C59" t="n">
-        <v>5.2958080309424E10</v>
+        <v>6.6276921013467E10</v>
       </c>
       <c r="D59" t="n">
-        <v>1.46552441181484E10</v>
+        <v>2.36404837630049E10</v>
       </c>
       <c r="E59" t="n">
-        <v>4.92417141504006E9</v>
+        <v>1.00126352288832E10</v>
       </c>
     </row>
     <row r="60">
@@ -1380,16 +1380,16 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>1.44529340730042E11</v>
+        <v>5.95464506296342E10</v>
       </c>
       <c r="C60" t="n">
-        <v>6.40477581852923E10</v>
+        <v>2.12462033463933E10</v>
       </c>
       <c r="D60" t="n">
-        <v>1.21258776237343E10</v>
+        <v>8.82966491389074E9</v>
       </c>
       <c r="E60" t="n">
-        <v>5.06485406092287E9</v>
+        <v>6.29905247850444E9</v>
       </c>
     </row>
     <row r="61">
@@ -1397,16 +1397,16 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>1.7358610614107E11</v>
+        <v>2.15740835418265E11</v>
       </c>
       <c r="C61" t="n">
-        <v>-3.04479902008945E10</v>
+        <v>7.46804860525125E10</v>
       </c>
       <c r="D61" t="n">
-        <v>1.51733073221546E10</v>
+        <v>1.75888410266432E10</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.38492644861783E9</v>
+        <v>5.77585415514875E9</v>
       </c>
     </row>
     <row r="62">
@@ -1414,16 +1414,16 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>6.54205035358457E10</v>
+        <v>9.99937418869025E10</v>
       </c>
       <c r="C62" t="n">
-        <v>3.02138912288685E10</v>
+        <v>3.78717531378333E10</v>
       </c>
       <c r="D62" t="n">
-        <v>5.63151898039404E9</v>
+        <v>1.10525052773539E10</v>
       </c>
       <c r="E62" t="n">
-        <v>2.4450312820616E9</v>
+        <v>6.00890815237941E9</v>
       </c>
     </row>
     <row r="63">
@@ -1431,16 +1431,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>2.35570786534854E11</v>
+        <v>6.31403755266076E10</v>
       </c>
       <c r="C63" t="n">
-        <v>4.48633855256385E10</v>
+        <v>9.32939362258664E9</v>
       </c>
       <c r="D63" t="n">
-        <v>2.13143762339349E10</v>
+        <v>7.59578872343691E9</v>
       </c>
       <c r="E63" t="n">
-        <v>4.68106446361903E9</v>
+        <v>7.20287643848771E8</v>
       </c>
     </row>
     <row r="64">
@@ -1448,16 +1448,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>2.60410178042341E11</v>
+        <v>3.57519959819461E11</v>
       </c>
       <c r="C64" t="n">
-        <v>1.41582356310508E11</v>
+        <v>1.50512529865794E11</v>
       </c>
       <c r="D64" t="n">
-        <v>2.22008543799614E10</v>
+        <v>3.2888835318188E10</v>
       </c>
       <c r="E64" t="n">
-        <v>1.19802503275652E10</v>
+        <v>1.1921896886512E10</v>
       </c>
     </row>
     <row r="65">
@@ -1465,16 +1465,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>2.00282555814771E10</v>
+        <v>2.20390173957688E11</v>
       </c>
       <c r="C65" t="n">
-        <v>7.63707420442387E9</v>
+        <v>9.08701014020267E10</v>
       </c>
       <c r="D65" t="n">
-        <v>4.95215799842076E9</v>
+        <v>2.25796114392657E10</v>
       </c>
       <c r="E65" t="n">
-        <v>2.34303127193098E9</v>
+        <v>8.59586898818867E9</v>
       </c>
     </row>
     <row r="66">
@@ -1482,16 +1482,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>3.36465409492151E11</v>
+        <v>1.72197986647448E11</v>
       </c>
       <c r="C66" t="n">
-        <v>9.46365802339413E10</v>
+        <v>9.99868284847168E9</v>
       </c>
       <c r="D66" t="n">
-        <v>3.0335636262708E10</v>
+        <v>1.50813698923226E10</v>
       </c>
       <c r="E66" t="n">
-        <v>9.02984274331461E9</v>
+        <v>6.46203781024685E8</v>
       </c>
     </row>
     <row r="67">
@@ -1499,16 +1499,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>1.11433185461203E11</v>
+        <v>9.05274431913247E10</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.14490851577664E10</v>
+        <v>3.38418204806204E9</v>
       </c>
       <c r="D67" t="n">
-        <v>1.13913572052677E10</v>
+        <v>8.91989247061004E9</v>
       </c>
       <c r="E67" t="n">
-        <v>-2.96700602931311E8</v>
+        <v>1.97783273098825E9</v>
       </c>
     </row>
     <row r="68">
@@ -1516,16 +1516,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>2.673374688237E11</v>
+        <v>2.79032397361813E11</v>
       </c>
       <c r="C68" t="n">
-        <v>2.98124156306261E10</v>
+        <v>6.12154178675434E10</v>
       </c>
       <c r="D68" t="n">
-        <v>3.14301565679732E10</v>
+        <v>2.44737602457873E10</v>
       </c>
       <c r="E68" t="n">
-        <v>7.24423953009297E9</v>
+        <v>5.50001291579627E9</v>
       </c>
     </row>
     <row r="69">
@@ -1533,16 +1533,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>4.11245354081071E11</v>
+        <v>3.18711276277956E11</v>
       </c>
       <c r="C69" t="n">
-        <v>2.02110378589695E11</v>
+        <v>1.87295713606259E11</v>
       </c>
       <c r="D69" t="n">
-        <v>3.33410181830363E10</v>
+        <v>2.7204419173283E10</v>
       </c>
       <c r="E69" t="n">
-        <v>1.591959369059E10</v>
+        <v>1.38089284472887E10</v>
       </c>
     </row>
     <row r="70">
@@ -1550,16 +1550,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>1.47352283713316E11</v>
+        <v>1.61807107858383E11</v>
       </c>
       <c r="C70" t="n">
-        <v>3.47641191118419E10</v>
+        <v>8.27049882205986E10</v>
       </c>
       <c r="D70" t="n">
-        <v>1.35935020066569E10</v>
+        <v>1.66209706245564E10</v>
       </c>
       <c r="E70" t="n">
-        <v>3.41669304222339E9</v>
+        <v>9.0254108878469E9</v>
       </c>
     </row>
     <row r="71">
@@ -1567,16 +1567,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>2.20017735336915E11</v>
+        <v>5.86519293764963E11</v>
       </c>
       <c r="C71" t="n">
-        <v>2.99307083404118E10</v>
+        <v>1.82013023058863E11</v>
       </c>
       <c r="D71" t="n">
-        <v>1.85691098936497E10</v>
+        <v>5.09668076164458E10</v>
       </c>
       <c r="E71" t="n">
-        <v>2.89334372902307E9</v>
+        <v>2.40235806841471E10</v>
       </c>
     </row>
     <row r="72">
@@ -1584,16 +1584,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>2.35459714784395E11</v>
+        <v>1.00502031969664E11</v>
       </c>
       <c r="C72" t="n">
-        <v>1.34339231532925E10</v>
+        <v>4.32932266589468E10</v>
       </c>
       <c r="D72" t="n">
-        <v>1.96478461238337E10</v>
+        <v>9.16696603403243E9</v>
       </c>
       <c r="E72" t="n">
-        <v>1.24802419072112E9</v>
+        <v>3.65327799194271E9</v>
       </c>
     </row>
     <row r="73">
@@ -1601,16 +1601,16 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>1.71114262242864E11</v>
+        <v>3.8214392825586E11</v>
       </c>
       <c r="C73" t="n">
-        <v>5.03096021574951E10</v>
+        <v>1.10704513111105E11</v>
       </c>
       <c r="D73" t="n">
-        <v>1.61561482275012E10</v>
+        <v>3.1302955073821E10</v>
       </c>
       <c r="E73" t="n">
-        <v>4.95204370978912E9</v>
+        <v>7.18475346888002E9</v>
       </c>
     </row>
     <row r="74">
@@ -1618,16 +1618,16 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>1.43979310817534E11</v>
+        <v>1.23121430414962E11</v>
       </c>
       <c r="C74" t="n">
-        <v>2.56982825238506E10</v>
+        <v>4.68438271127784E10</v>
       </c>
       <c r="D74" t="n">
-        <v>1.29095398655691E10</v>
+        <v>1.14579525505379E10</v>
       </c>
       <c r="E74" t="n">
-        <v>2.20563020149032E9</v>
+        <v>4.57114452839988E9</v>
       </c>
     </row>
     <row r="75">
@@ -1635,16 +1635,16 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>2.57110591178227E11</v>
+        <v>1.87391066471877E11</v>
       </c>
       <c r="C75" t="n">
-        <v>1.47848895239003E11</v>
+        <v>8.3764080098971E10</v>
       </c>
       <c r="D75" t="n">
-        <v>2.14875157548151E10</v>
+        <v>1.4948321908176E10</v>
       </c>
       <c r="E75" t="n">
-        <v>1.19129349399272E10</v>
+        <v>6.54923690490723E9</v>
       </c>
     </row>
     <row r="76">
@@ -1652,16 +1652,16 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>1.49328713048925E11</v>
+        <v>2.99093308424846E11</v>
       </c>
       <c r="C76" t="n">
-        <v>6.9041582204223E9</v>
+        <v>8.04827909168053E10</v>
       </c>
       <c r="D76" t="n">
-        <v>1.73785839672352E10</v>
+        <v>2.53519012138316E10</v>
       </c>
       <c r="E76" t="n">
-        <v>3.79990809463069E9</v>
+        <v>8.01481942750983E9</v>
       </c>
     </row>
     <row r="77">
@@ -1669,16 +1669,16 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>3.01577986558958E11</v>
+        <v>2.35175135316836E11</v>
       </c>
       <c r="C77" t="n">
-        <v>1.67847862395231E11</v>
+        <v>-2.84809501802576E10</v>
       </c>
       <c r="D77" t="n">
-        <v>2.56099291626658E10</v>
+        <v>2.07459801422531E10</v>
       </c>
       <c r="E77" t="n">
-        <v>1.36159403015557E10</v>
+        <v>-7.30843983556014E8</v>
       </c>
     </row>
     <row r="78">
@@ -1686,16 +1686,16 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>1.95948465643131E11</v>
+        <v>3.80058917986688E11</v>
       </c>
       <c r="C78" t="n">
-        <v>7.12405006832045E10</v>
+        <v>3.16077621248234E10</v>
       </c>
       <c r="D78" t="n">
-        <v>1.69481135431889E10</v>
+        <v>3.12248149381071E10</v>
       </c>
       <c r="E78" t="n">
-        <v>6.25754536047158E9</v>
+        <v>3.8146600423244E9</v>
       </c>
     </row>
     <row r="79">
@@ -1703,16 +1703,16 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>1.4404132094146E11</v>
+        <v>1.22984713121502E11</v>
       </c>
       <c r="C79" t="n">
-        <v>7.03381243576487E10</v>
+        <v>5.31984927640654E10</v>
       </c>
       <c r="D79" t="n">
-        <v>1.30362310996171E10</v>
+        <v>1.35715289799764E10</v>
       </c>
       <c r="E79" t="n">
-        <v>6.25479890436401E9</v>
+        <v>5.73564359971663E9</v>
       </c>
     </row>
     <row r="80">
@@ -1720,16 +1720,16 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>1.04302473609562E11</v>
+        <v>9.31385909527651E11</v>
       </c>
       <c r="C80" t="n">
-        <v>5.02488613803485E10</v>
+        <v>3.59414284162832E11</v>
       </c>
       <c r="D80" t="n">
-        <v>1.03582729055499E10</v>
+        <v>7.39407821890177E10</v>
       </c>
       <c r="E80" t="n">
-        <v>5.01094377573549E9</v>
+        <v>2.57419855168505E10</v>
       </c>
     </row>
     <row r="81">
@@ -1737,16 +1737,16 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>3.1852028349313E11</v>
+        <v>4.84963169810188E11</v>
       </c>
       <c r="C81" t="n">
-        <v>1.59096467583136E11</v>
+        <v>1.1900376702168E11</v>
       </c>
       <c r="D81" t="n">
-        <v>2.67546375521605E10</v>
+        <v>4.45892415092286E10</v>
       </c>
       <c r="E81" t="n">
-        <v>1.30130522061263E10</v>
+        <v>8.99066765867334E9</v>
       </c>
     </row>
     <row r="82">
@@ -1754,16 +1754,16 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>3.8603309796735E11</v>
+        <v>1.28293756085586E11</v>
       </c>
       <c r="C82" t="n">
-        <v>1.01839601175816E11</v>
+        <v>4.52367903175493E10</v>
       </c>
       <c r="D82" t="n">
-        <v>3.09840097867065E10</v>
+        <v>1.3039754026027E10</v>
       </c>
       <c r="E82" t="n">
-        <v>7.75042882535073E9</v>
+        <v>4.50237114491638E9</v>
       </c>
     </row>
     <row r="83">
@@ -1771,16 +1771,16 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>1.23991412743536E11</v>
+        <v>1.628529396614E11</v>
       </c>
       <c r="C83" t="n">
-        <v>1.96666160505068E10</v>
+        <v>3.22025009465443E10</v>
       </c>
       <c r="D83" t="n">
-        <v>1.16095501937053E10</v>
+        <v>1.49916850946693E10</v>
       </c>
       <c r="E83" t="n">
-        <v>2.34204309662051E9</v>
+        <v>2.98915408310383E9</v>
       </c>
     </row>
     <row r="84">
@@ -1788,16 +1788,16 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>1.58670573152387E11</v>
+        <v>1.62869442630766E11</v>
       </c>
       <c r="C84" t="n">
-        <v>9.63214249179771E10</v>
+        <v>6.55047636693332E10</v>
       </c>
       <c r="D84" t="n">
-        <v>1.45090751836801E10</v>
+        <v>1.72719034413849E10</v>
       </c>
       <c r="E84" t="n">
-        <v>8.09710953839377E9</v>
+        <v>8.07293379290377E9</v>
       </c>
     </row>
     <row r="85">
@@ -1805,16 +1805,16 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>4.84692804533833E11</v>
+        <v>3.34490658231662E10</v>
       </c>
       <c r="C85" t="n">
-        <v>1.66305350510577E11</v>
+        <v>5.15435685337175E9</v>
       </c>
       <c r="D85" t="n">
-        <v>3.88179329692976E10</v>
+        <v>3.74903149203823E9</v>
       </c>
       <c r="E85" t="n">
-        <v>1.22307348187274E10</v>
+        <v>6.37211559105041E7</v>
       </c>
     </row>
     <row r="86">
@@ -1822,16 +1822,16 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>1.65788043235884E11</v>
+        <v>6.33107475485282E10</v>
       </c>
       <c r="C86" t="n">
-        <v>8.97248858989179E10</v>
+        <v>2.17347511606768E10</v>
       </c>
       <c r="D86" t="n">
-        <v>1.45073811030837E10</v>
+        <v>2.02937861183724E10</v>
       </c>
       <c r="E86" t="n">
-        <v>7.35837220741426E9</v>
+        <v>9.65127904840147E9</v>
       </c>
     </row>
     <row r="87">
@@ -1839,16 +1839,16 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>1.93463136560051E11</v>
+        <v>2.49732825259541E11</v>
       </c>
       <c r="C87" t="n">
-        <v>8.23952028454512E10</v>
+        <v>1.08408254614991E11</v>
       </c>
       <c r="D87" t="n">
-        <v>1.53105475073852E10</v>
+        <v>2.31005800592613E10</v>
       </c>
       <c r="E87" t="n">
-        <v>5.95909151489579E9</v>
+        <v>1.14500388550565E10</v>
       </c>
     </row>
     <row r="88">
@@ -1856,16 +1856,16 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>4.07372555841038E11</v>
+        <v>8.89520160119898E10</v>
       </c>
       <c r="C88" t="n">
-        <v>1.21804262206209E11</v>
+        <v>4.99392888221251E10</v>
       </c>
       <c r="D88" t="n">
-        <v>3.40841608562518E10</v>
+        <v>1.40562613263559E10</v>
       </c>
       <c r="E88" t="n">
-        <v>1.05320495975593E10</v>
+        <v>7.27681229582978E9</v>
       </c>
     </row>
     <row r="89">
@@ -1873,16 +1873,16 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>1.52696834462596E11</v>
+        <v>1.13114807914323E11</v>
       </c>
       <c r="C89" t="n">
-        <v>6.09434804314012E10</v>
+        <v>3.4500174205982E10</v>
       </c>
       <c r="D89" t="n">
-        <v>1.60709294986724E10</v>
+        <v>8.82291461961242E9</v>
       </c>
       <c r="E89" t="n">
-        <v>6.81215592880204E9</v>
+        <v>3.20817118213472E9</v>
       </c>
     </row>
     <row r="90">
@@ -1890,16 +1890,16 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>2.83093116446504E11</v>
+        <v>3.49293853939552E11</v>
       </c>
       <c r="C90" t="n">
-        <v>1.05538629817422E11</v>
+        <v>2.06295685790247E11</v>
       </c>
       <c r="D90" t="n">
-        <v>2.32520064884543E10</v>
+        <v>2.83558615908467E10</v>
       </c>
       <c r="E90" t="n">
-        <v>8.37734209532156E9</v>
+        <v>1.54011010796805E10</v>
       </c>
     </row>
     <row r="91">
@@ -1907,16 +1907,16 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>2.85048363932531E11</v>
+        <v>1.69132191761039E11</v>
       </c>
       <c r="C91" t="n">
-        <v>7.04931902237325E10</v>
+        <v>6.9235616856469E10</v>
       </c>
       <c r="D91" t="n">
-        <v>2.42275629735342E10</v>
+        <v>1.61967525073801E10</v>
       </c>
       <c r="E91" t="n">
-        <v>6.07404411818415E9</v>
+        <v>7.1592726888639E9</v>
       </c>
     </row>
     <row r="92">
@@ -1924,16 +1924,16 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>2.67464956366454E11</v>
+        <v>1.72496357894318E11</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.43344623098514E10</v>
+        <v>7.99556015716379E10</v>
       </c>
       <c r="D92" t="n">
-        <v>2.31605020191151E10</v>
+        <v>1.5189638041948E10</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.09539025311144E9</v>
+        <v>6.01126977138743E9</v>
       </c>
     </row>
     <row r="93">
@@ -1941,16 +1941,16 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>1.2102116085881E11</v>
+        <v>4.15863707274651E10</v>
       </c>
       <c r="C93" t="n">
-        <v>1.5471665719344E10</v>
+        <v>1.60108577745131E10</v>
       </c>
       <c r="D93" t="n">
-        <v>1.41058888815674E10</v>
+        <v>4.51410074668424E9</v>
       </c>
       <c r="E93" t="n">
-        <v>3.73651266361625E9</v>
+        <v>1.97364989635668E9</v>
       </c>
     </row>
     <row r="94">
@@ -1958,16 +1958,16 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>2.80767105620782E11</v>
+        <v>6.26630224483534E10</v>
       </c>
       <c r="C94" t="n">
-        <v>7.78960611557859E10</v>
+        <v>4.28412712438241E10</v>
       </c>
       <c r="D94" t="n">
-        <v>2.47919958555611E10</v>
+        <v>9.8792398488749E9</v>
       </c>
       <c r="E94" t="n">
-        <v>7.1764910249406E9</v>
+        <v>7.62598469334284E9</v>
       </c>
     </row>
     <row r="95">
@@ -1975,16 +1975,16 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>4.2245742033762E11</v>
+        <v>2.8381813291721E10</v>
       </c>
       <c r="C95" t="n">
-        <v>1.44878866318494E11</v>
+        <v>9.92393831684765E9</v>
       </c>
       <c r="D95" t="n">
-        <v>3.8603473481934E10</v>
+        <v>5.88387604462277E9</v>
       </c>
       <c r="E95" t="n">
-        <v>1.20451462637999E10</v>
+        <v>3.89203686198827E9</v>
       </c>
     </row>
     <row r="96">
@@ -1992,16 +1992,16 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>7.95565934550825E10</v>
+        <v>2.69713898258253E11</v>
       </c>
       <c r="C96" t="n">
-        <v>5.96832754213807E9</v>
+        <v>7.86264204420594E10</v>
       </c>
       <c r="D96" t="n">
-        <v>8.31835415944693E9</v>
+        <v>2.31357072285031E10</v>
       </c>
       <c r="E96" t="n">
-        <v>1.45705226898732E9</v>
+        <v>8.05961378585091E9</v>
       </c>
     </row>
     <row r="97">
@@ -2009,16 +2009,16 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>1.57591535765398E11</v>
+        <v>3.50947607761364E11</v>
       </c>
       <c r="C97" t="n">
-        <v>5.95673770347734E9</v>
+        <v>1.43106768590075E11</v>
       </c>
       <c r="D97" t="n">
-        <v>1.38856944461965E10</v>
+        <v>3.22730921781649E10</v>
       </c>
       <c r="E97" t="n">
-        <v>1.38586337580501E9</v>
+        <v>1.07175560375432E10</v>
       </c>
     </row>
     <row r="98">
@@ -2026,16 +2026,16 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>1.43449559918257E11</v>
+        <v>2.14489524230577E11</v>
       </c>
       <c r="C98" t="n">
-        <v>9.04090878724562E10</v>
+        <v>1.19214877154453E11</v>
       </c>
       <c r="D98" t="n">
-        <v>1.17904372021563E10</v>
+        <v>1.91253790940088E10</v>
       </c>
       <c r="E98" t="n">
-        <v>6.1695169229005E9</v>
+        <v>1.04282505262486E10</v>
       </c>
     </row>
     <row r="99">
@@ -2043,16 +2043,16 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>3.33980737744494E11</v>
+        <v>1.37613400202834E11</v>
       </c>
       <c r="C99" t="n">
-        <v>1.80644967509912E11</v>
+        <v>2.17237385708663E10</v>
       </c>
       <c r="D99" t="n">
-        <v>2.85666744892117E10</v>
+        <v>1.20126641475207E10</v>
       </c>
       <c r="E99" t="n">
-        <v>1.534558930203E10</v>
+        <v>2.42569982973233E9</v>
       </c>
     </row>
     <row r="100">
@@ -2060,16 +2060,16 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>9.40317212908184E10</v>
+        <v>1.0347338308435E11</v>
       </c>
       <c r="C100" t="n">
-        <v>8.36054283399376E9</v>
+        <v>4.21305154107601E10</v>
       </c>
       <c r="D100" t="n">
-        <v>1.42308219678611E10</v>
+        <v>1.05735355424431E10</v>
       </c>
       <c r="E100" t="n">
-        <v>4.33843856303844E9</v>
+        <v>4.90906173200396E9</v>
       </c>
     </row>
     <row r="101">
@@ -2077,16 +2077,16 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>3.97079552143483E10</v>
+        <v>1.15650348383324E11</v>
       </c>
       <c r="C101" t="n">
-        <v>1.29674507013801E10</v>
+        <v>6.62533604235445E10</v>
       </c>
       <c r="D101" t="n">
-        <v>3.56287776884548E9</v>
+        <v>1.12159563652856E10</v>
       </c>
       <c r="E101" t="n">
-        <v>1.12363903422049E9</v>
+        <v>6.57167717354559E9</v>
       </c>
     </row>
   </sheetData>
